--- a/P1_uncoded.xlsx
+++ b/P1_uncoded.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Atsushi/Documents/DOMath/Jupyter/Result analysis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddrsq\OneDrive\IBM Q\qecc_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC05B086-7FFA-4E46-B11E-4FAA3B8E05FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED0FFDE-D85C-4041-9D90-C107A791F950}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="1460" windowWidth="25040" windowHeight="13940" xr2:uid="{88D8A77B-4E5E-C844-AD6C-39343CCD86F6}"/>
+    <workbookView xWindow="12420" yWindow="1463" windowWidth="25043" windowHeight="13943" xr2:uid="{88D8A77B-4E5E-C844-AD6C-39343CCD86F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>00</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>SUM</t>
+  </si>
+  <si>
+    <t>Average Success</t>
   </si>
 </sst>
 </file>
@@ -395,18 +398,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30ED45FE-F717-8D4A-ACE8-857997AC534B}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +428,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -451,7 +457,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>0</v>
       </c>
@@ -472,11 +478,11 @@
         <v>0.9697265625</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G37" si="1">SUM(B3:E3)</f>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B3:E3)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>0</v>
       </c>
@@ -497,11 +503,11 @@
         <v>0.96875</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B4:E4)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>0</v>
       </c>
@@ -522,11 +528,11 @@
         <v>0.978515625</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B5:E5)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>0</v>
       </c>
@@ -547,11 +553,11 @@
         <v>0.98046875</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B6:E6)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>0</v>
       </c>
@@ -572,11 +578,11 @@
         <v>0.978515625</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B7:E7)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>0</v>
       </c>
@@ -597,11 +603,11 @@
         <v>0.9716796875</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B8:E8)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>0</v>
       </c>
@@ -622,11 +628,11 @@
         <v>0.97265625</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B9:E9)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>0</v>
       </c>
@@ -647,11 +653,15 @@
         <v>0.9775390625</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B10:E10)</f>
+        <v>1024</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE(F2:F10)</f>
+        <v>0.97536892361111116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>1</v>
       </c>
@@ -672,11 +682,11 @@
         <v>0.861328125</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B11:E11)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>1</v>
       </c>
@@ -693,15 +703,15 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F19" si="2">D12/1024</f>
+        <f t="shared" ref="F12:F19" si="1">D12/1024</f>
         <v>0.87890625</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B12:E12)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>1</v>
       </c>
@@ -718,15 +728,15 @@
         <v>7</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.9013671875</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B13:E13)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>1</v>
       </c>
@@ -743,15 +753,15 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.869140625</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B14:E14)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>1</v>
       </c>
@@ -768,15 +778,15 @@
         <v>11</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.896484375</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B15:E15)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>1</v>
       </c>
@@ -793,15 +803,15 @@
         <v>8</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.8857421875</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B16:E16)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>1</v>
       </c>
@@ -818,15 +828,15 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.896484375</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B17:E17)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>1</v>
       </c>
@@ -843,15 +853,15 @@
         <v>6</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.884765625</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B18:E18)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>1</v>
       </c>
@@ -868,15 +878,19 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.88671875</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B19:E19)</f>
+        <v>1024</v>
+      </c>
+      <c r="H19">
+        <f>AVERAGE(F11:F19)</f>
+        <v>0.88454861111111116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>2</v>
       </c>
@@ -897,11 +911,11 @@
         <v>0.90625</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B20:E20)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>2</v>
       </c>
@@ -918,15 +932,15 @@
         <v>11</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F28" si="3">C21/1024</f>
+        <f t="shared" ref="F21:F28" si="2">C21/1024</f>
         <v>0.8955078125</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B21:E21)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>2</v>
       </c>
@@ -943,15 +957,15 @@
         <v>17</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.916015625</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B22:E22)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>2</v>
       </c>
@@ -968,15 +982,15 @@
         <v>13</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.9140625</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B23:E23)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>2</v>
       </c>
@@ -993,15 +1007,15 @@
         <v>16</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.9140625</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B24:E24)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1018,15 +1032,15 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.916015625</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B25:E25)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1043,15 +1057,15 @@
         <v>8</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.91796875</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B26:E26)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1068,15 +1082,15 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.90234375</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B27:E27)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1093,15 +1107,19 @@
         <v>21</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.8955078125</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B28:E28)</f>
+        <v>1024</v>
+      </c>
+      <c r="H28">
+        <f>AVERAGE(F20:F28)</f>
+        <v>0.90863715277777779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1122,11 +1140,11 @@
         <v>0.8232421875</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B29:E29)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1143,15 +1161,15 @@
         <v>856</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:F37" si="4">E30/1024</f>
+        <f t="shared" ref="F30:F37" si="3">E30/1024</f>
         <v>0.8359375</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B30:E30)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1168,15 +1186,15 @@
         <v>844</v>
       </c>
       <c r="F31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.82421875</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B31:E31)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1193,15 +1211,15 @@
         <v>884</v>
       </c>
       <c r="F32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.86328125</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B32:E32)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1222,11 +1240,11 @@
         <v>0.8544921875</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B33:E33)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1243,15 +1261,15 @@
         <v>857</v>
       </c>
       <c r="F34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.8369140625</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B34:E34)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1268,15 +1286,15 @@
         <v>864</v>
       </c>
       <c r="F35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.84375</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B35:E35)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1293,15 +1311,15 @@
         <v>829</v>
       </c>
       <c r="F36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.8095703125</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B36:E36)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1318,15 +1336,19 @@
         <v>869</v>
       </c>
       <c r="F37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.8486328125</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B37:E37)</f>
+        <v>1024</v>
+      </c>
+      <c r="H37">
+        <f>AVERAGE(F29:F37)</f>
+        <v>0.83778211805555558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
       <c r="F38">
         <f>AVERAGE(F2:F37)</f>
         <v>0.90158420138888884</v>
